--- a/Java11/Scope_Java11.xlsx
+++ b/Java11/Scope_Java11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IIHT\CTS\DTP_2021\AssessmentAndAssignmentsJan2021\Deliverables\Java11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210CB43-AD9D-4378-AEC7-2F1B50A30CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DCF4C2-CF44-4112-A949-B753C0A73E51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,12 +599,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A61BEE1A29DBC468A101778A1CACB5C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2153c93b91400bd0be215662ad8b280b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2aad2a05-c9d9-4c86-a30c-fc844b8841c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6e8659ff1a2217b0c7f2f4616333383" ns2:_="">
     <xsd:import namespace="2aad2a05-c9d9-4c86-a30c-fc844b8841c2"/>
@@ -736,6 +730,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -746,15 +746,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78039C3-76E1-4B04-B828-384E594B1B35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4D4E54E-D96A-49BF-83C9-198CF9CC54F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -772,6 +763,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78039C3-76E1-4B04-B828-384E594B1B35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8686A179-7584-47CB-A8D1-D1E99EDACAE0}">
   <ds:schemaRefs>
